--- a/inst/preg.xlsx
+++ b/inst/preg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\X7-KR\Documents\Rproject\dmtools\inst\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B026326-A9F9-4A26-B6DB-5FACE0D6C37A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D52EAEF2-50AC-472A-AEE9-5C304F4B8D8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="24" windowWidth="17304" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -27,16 +27,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>yn</t>
-  </si>
-  <si>
-    <t>res</t>
-  </si>
-  <si>
     <t>preg_yn</t>
   </si>
   <si>
     <t>preg_res</t>
+  </si>
+  <si>
+    <t>LBPERF</t>
+  </si>
+  <si>
+    <t>LBORRES</t>
   </si>
 </sst>
 </file>
@@ -357,25 +357,25 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7:H8"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
